--- a/paper/supplementary tables/supplementary_tables.xlsx
+++ b/paper/supplementary tables/supplementary_tables.xlsx
@@ -3595,7 +3595,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Observation time</t>
+          <t>Time between survey and diagnosis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3626,7 +3626,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Observation time</t>
+          <t>Time between survey and diagnosis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3808,15 +3808,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>no: 98.4% (1139)
-yes: 1.56% (18) 
+          <t>1.56% (18) 
 n = 1157</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no: 99.2% (886)
-yes: 0.784% (7) 
+          <t>0.784% (7) 
 n = 893</t>
         </is>
       </c>
@@ -3839,15 +3837,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>no: 98.4% (1139)
-yes: 1.56% (18) 
+          <t>1.56% (18) 
 n = 1157</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no: 99% (884)
-yes: 1.01% (9) 
+          <t>1.01% (9) 
 n = 893</t>
         </is>
       </c>
@@ -3870,15 +3866,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>no: 97.6% (1129)
-yes: 2.42% (28) 
+          <t>2.42% (28) 
 n = 1157</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no: 97.1% (867)
-yes: 2.91% (26) 
+          <t>2.91% (26) 
 n = 893</t>
         </is>
       </c>
@@ -3896,20 +3890,18 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Freq. resp. infections</t>
+          <t>&gt; 2 respiratory infections per year</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>no: 95.6% (1106)
-yes: 4.41% (51) 
+          <t>4.41% (51) 
 n = 1157</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no: 97.1% (867)
-yes: 2.91% (26) 
+          <t>2.91% (26) 
 n = 893</t>
         </is>
       </c>
@@ -3927,20 +3919,18 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Freq. bact. Infections</t>
+          <t>&gt; 2 bacterial infections per year</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>no: 96.1% (1112)
-yes: 3.89% (45) 
+          <t>3.89% (45) 
 n = 1157</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no: 98.7% (881)
-yes: 1.34% (12) 
+          <t>1.34% (12) 
 n = 893</t>
         </is>
       </c>
@@ -3963,15 +3953,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>no: 86.3% (999)
-yes: 13.7% (158) 
+          <t>13.7% (158) 
 n = 1157</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no: 85.2% (761)
-yes: 14.8% (132) 
+          <t>14.8% (132) 
 n = 893</t>
         </is>
       </c>
@@ -4029,15 +4017,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>no: 46% (531)
-yes: 54% (624) 
+          <t>54% (624) 
 n = 1155</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no: 36.7% (326)
-yes: 63.3% (563) 
+          <t>63.3% (563) 
 n = 889</t>
         </is>
       </c>
@@ -4095,15 +4081,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>no: 83% (957)
-yes: 17% (196) 
+          <t>17% (196) 
 n = 1153</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no: 86.8% (771)
-yes: 13.2% (117) 
+          <t>13.2% (117) 
 n = 888</t>
         </is>
       </c>
